--- a/comparison_results/PSO_PID_No_Disturbance_Test_2.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_2.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03742384390597243</v>
+        <v>0.0361633436990888</v>
       </c>
       <c r="C2" t="n">
-        <v>1.011011011011011</v>
+        <v>0.9209209209209209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.605179106131019</v>
+        <v>1.129217078482695</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0101274038725296</v>
+        <v>0.01200264650929501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1543528131489107</v>
+        <v>0.1409724884376121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7891085439700045</v>
+        <v>0.7689932430136786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2677253551775988</v>
+        <v>0.2610749481264866</v>
       </c>
       <c r="J2" t="n">
-        <v>11.83607061400861</v>
+        <v>12.83279661886974</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9793695039600956</v>
+        <v>0.9755741663477736</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.999706091754092</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9776659673247887</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04616532299758765</v>
+        <v>0.0458770094583371</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6479976802562908</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>9.996445302776895</v>
+        <v>0.9759410507295357</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09827171428715854</v>
+        <v>0.07690189990184888</v>
       </c>
       <c r="R2" t="n">
-        <v>1.298394841929761</v>
+        <v>0.888377546150185</v>
       </c>
       <c r="S2" t="n">
-        <v>2.091287949517547</v>
+        <v>9.9999802837138</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002083817124546608</v>
+        <v>0.1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6405287962446675</v>
+        <v>1.999851456051437</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06778300719257442</v>
+        <v>0.04133543916746017</v>
       </c>
       <c r="C3" t="n">
-        <v>1.851851851851852</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D3" t="n">
-        <v>5.179307321113727</v>
+        <v>1.419100738812743</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008459254006301997</v>
+        <v>0.02105896633739928</v>
       </c>
       <c r="G3" t="n">
-        <v>0.10742536496892</v>
+        <v>0.1778013943719284</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6401052614919365</v>
+        <v>0.8898323658234315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2466798069968299</v>
+        <v>0.2717759409642752</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>11.48006227756403</v>
       </c>
       <c r="K3" t="n">
-        <v>1.007197763872738</v>
+        <v>0.9670347900991159</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>9.999984298804062</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05857579622367302</v>
+        <v>0.00780603352196571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2630174975129715</v>
+        <v>0.1</v>
       </c>
       <c r="P3" t="n">
-        <v>9.996355402234041</v>
+        <v>5.217936769773743</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09764968838507292</v>
+        <v>0.09998555054546746</v>
       </c>
       <c r="R3" t="n">
-        <v>0.911596845137018</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>6.680693896951714</v>
+        <v>0.1916880517332438</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04508277042694415</v>
+        <v>0.005832833829855051</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1001838736931313</v>
+        <v>1.967825912978444</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06920564221116324</v>
+        <v>0.03967268947192058</v>
       </c>
       <c r="C4" t="n">
-        <v>2.022022022022022</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D4" t="n">
-        <v>3.460011808261084</v>
+        <v>1.020752752498429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6006006006006006</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009433487375475978</v>
+        <v>0.01513756538508205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1354671104731804</v>
+        <v>0.1671089746084732</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7462181270075248</v>
+        <v>0.8407589553485091</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2586999911355681</v>
+        <v>0.2713655022751615</v>
       </c>
       <c r="J4" t="n">
-        <v>13.04357322978882</v>
+        <v>11.37330015848385</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9869144092159361</v>
+        <v>0.9741062222939122</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1.263314421783547</v>
       </c>
       <c r="P4" t="n">
-        <v>5.552718994220352</v>
+        <v>1.052176577801344</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02779346500888311</v>
+        <v>0.06763264650808697</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1</v>
+        <v>1.808276664664286</v>
       </c>
       <c r="S4" t="n">
-        <v>9.999892982207619</v>
+        <v>7.425929739218932</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1</v>
+        <v>0.007544185831286917</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0.9061329275435673</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03495219620548334</v>
+        <v>0.04010707413154162</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001001001001001</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08599443279990737</v>
+        <v>1.011760995555111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001877613624529342</v>
+        <v>0.01439105028034138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1467403794704786</v>
+        <v>0.169470663289758</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7182786560884924</v>
+        <v>0.8563433840143223</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2672648006753212</v>
+        <v>0.2714013370609763</v>
       </c>
       <c r="J5" t="n">
-        <v>11.7205119278432</v>
+        <v>11.47857017740666</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9888044414627315</v>
+        <v>0.974839057999381</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.880086088181816</v>
+        <v>1.126789039713778</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02305174531206038</v>
+        <v>0.09827380825801184</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2194493341658852</v>
+        <v>1.837528187275346</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64791121557411</v>
+        <v>5.599906982265783</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02446096056859287</v>
+        <v>0.03581022420249844</v>
       </c>
       <c r="R5" t="n">
-        <v>0.637105602443985</v>
+        <v>0.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.219398631143838</v>
+        <v>5.240097973922214</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02593541907089034</v>
+        <v>0.01262022127007913</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5994486245781101</v>
+        <v>1.758571463132552</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03969812723033947</v>
+        <v>0.03064643001352425</v>
       </c>
       <c r="C6" t="n">
-        <v>1.001001001001001</v>
+        <v>0.8608608608608609</v>
       </c>
       <c r="D6" t="n">
-        <v>1.564702004633863</v>
+        <v>0.1611431670488421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.5705705705705706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01090434585240323</v>
+        <v>0.001375551300753562</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1570733200128121</v>
+        <v>0.1176554358288785</v>
       </c>
       <c r="H6" t="n">
-        <v>0.798078447493258</v>
+        <v>0.6507018716188988</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2691201578957924</v>
+        <v>0.2534242204124408</v>
       </c>
       <c r="J6" t="n">
-        <v>11.62638325674938</v>
+        <v>13.81631125112499</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9795940523778939</v>
+        <v>0.988926327500988</v>
       </c>
       <c r="L6" t="n">
-        <v>4.996322128262497</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6604585189930139</v>
+        <v>1.379084229845061</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07537836713011715</v>
+        <v>0.05987029451640663</v>
       </c>
       <c r="O6" t="n">
-        <v>1.978754668182732</v>
+        <v>0.2638435139829978</v>
       </c>
       <c r="P6" t="n">
-        <v>7.646101702395701</v>
+        <v>1.394082839572285</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09903360147452477</v>
+        <v>0.03789382895578456</v>
       </c>
       <c r="R6" t="n">
-        <v>1.550451151451323</v>
+        <v>0.4921844856424051</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2896108553237156</v>
+        <v>3.319901125423557</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001810690551771983</v>
+        <v>0.07513900813129312</v>
       </c>
       <c r="U6" t="n">
-        <v>1.934680118625068</v>
+        <v>1.98778036048691</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0290144619564346</v>
+        <v>0.03648202016114056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8308308308308309</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04112235261990449</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001005968840813031</v>
+        <v>0.00753300149578651</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1082819318933008</v>
+        <v>0.1588937242186747</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6079580515718048</v>
+        <v>0.7929420611417128</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2488530492582106</v>
+        <v>0.2701714283671472</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65385960381255</v>
+        <v>11.5895270489671</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9893752103448465</v>
+        <v>0.9826211055027317</v>
       </c>
       <c r="L7" t="n">
-        <v>4.99920317405248</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.288772548965063</v>
+        <v>7.448873412172503</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05048933059591827</v>
+        <v>0.09310915618632692</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2857264731839759</v>
+        <v>0.1070452908679942</v>
       </c>
       <c r="P7" t="n">
-        <v>1.969534661469099</v>
+        <v>0.6889459182083464</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08745422436239467</v>
+        <v>0.01513595604872075</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3385867582509838</v>
+        <v>0.1570341448325701</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6177934086065896</v>
+        <v>10</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0642717213927972</v>
+        <v>0.001832978174324417</v>
       </c>
       <c r="U7" t="n">
-        <v>1.680384705845109</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04032622399144521</v>
+        <v>0.03669019279167093</v>
       </c>
       <c r="C8" t="n">
-        <v>1.061061061061061</v>
+        <v>0.9109109109109109</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9058163777347991</v>
+        <v>1.16576927603543</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01442880784157022</v>
+        <v>0.01995511555200068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1728583727104933</v>
+        <v>0.1500415243487734</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8536691725623375</v>
+        <v>0.820223136565257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.273231597530023</v>
+        <v>0.2603569542832962</v>
       </c>
       <c r="J8" t="n">
-        <v>11.1851105502544</v>
+        <v>12.98446838969909</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9751172103453968</v>
+        <v>0.9651248762327079</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8321160031401276</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06448741730330598</v>
+        <v>0.001000008257272672</v>
       </c>
       <c r="O8" t="n">
-        <v>1.945440685623821</v>
+        <v>1.9994266033914</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>1.031363546143442</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0989293246097757</v>
+        <v>0.07639315258144842</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6781747556737</v>
+        <v>0.8380782199171323</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1489639072462163</v>
+        <v>0.1</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07635340358679517</v>
+        <v>0.04753447795540917</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1052386875284351</v>
+        <v>0.2158094189382728</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03158987256219719</v>
+        <v>0.04066836554708367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8908908908908909</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1701201900839777</v>
+        <v>1.324893687736909</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5905905905905906</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002638086093610842</v>
+        <v>0.01156553824361069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1210202918980565</v>
+        <v>0.1645814635542518</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6629758684179753</v>
+        <v>0.8205558186955092</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2547316731678204</v>
+        <v>0.2718485102584813</v>
       </c>
       <c r="J9" t="n">
-        <v>13.69553548024554</v>
+        <v>11.34643755933048</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9869180935118206</v>
+        <v>0.9779482532637604</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>4.002024672059297</v>
+        <v>8.522307138794149</v>
       </c>
       <c r="N9" t="n">
+        <v>0.09994085752684113</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.001273148043385</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9055661794598202</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.07949338451521641</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.998430753809913</v>
+      </c>
+      <c r="S9" t="n">
         <v>0.1</v>
       </c>
-      <c r="O9" t="n">
-        <v>0.6664690444205095</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.199929535458708</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.05764561300354459</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.3101838143364792</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10</v>
-      </c>
       <c r="T9" t="n">
-        <v>0.03261102510465851</v>
+        <v>0.02545114889640071</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96465323021477</v>
+        <v>0.1194570750770502</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03871373699172485</v>
+        <v>0.03991407955876647</v>
       </c>
       <c r="C10" t="n">
-        <v>1.031031031031031</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D10" t="n">
-        <v>0.784181813303834</v>
+        <v>0.7114563146975634</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01079137990824775</v>
+        <v>0.0181173088300351</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1633810339763824</v>
+        <v>0.1769521790168114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8128481210246055</v>
+        <v>0.8379120880129379</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2712493559173991</v>
+        <v>0.2747459968366299</v>
       </c>
       <c r="J10" t="n">
-        <v>11.33661601968975</v>
+        <v>10.87543909585546</v>
       </c>
       <c r="K10" t="n">
-        <v>0.980371168211375</v>
+        <v>0.9833497866148201</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7207015847946792</v>
+        <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01195186666441339</v>
+        <v>0.01040151606965573</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1684817983096299</v>
+        <v>0.4015071392175367</v>
       </c>
       <c r="P10" t="n">
-        <v>9.814856683196668</v>
+        <v>0.8331828690845005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06826859568929368</v>
+        <v>0.06684952340216935</v>
       </c>
       <c r="R10" t="n">
-        <v>1.356945614270043</v>
+        <v>1.994804769465466</v>
       </c>
       <c r="S10" t="n">
-        <v>5.950849940540185</v>
+        <v>0.1</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002566620043647678</v>
+        <v>0.09230996681098105</v>
       </c>
       <c r="U10" t="n">
-        <v>1.997781825314087</v>
+        <v>0.6625827082739525</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0403727367001865</v>
+        <v>0.04191020538662169</v>
       </c>
       <c r="C11" t="n">
-        <v>1.091091091091091</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7162402422005905</v>
+        <v>0.9809520378101529</v>
       </c>
       <c r="E11" t="n">
         <v>0.7307307307307307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00865307391763446</v>
+        <v>0.01559566470408497</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1747288610608541</v>
+        <v>0.183151765497357</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8344971609682781</v>
+        <v>0.8811631149665594</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2763346608281727</v>
+        <v>0.2773169264949797</v>
       </c>
       <c r="J11" t="n">
-        <v>10.90684009560477</v>
+        <v>10.74240833697454</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9809286754293194</v>
+        <v>0.9742008328763252</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>6.235653763227294</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05998149356259194</v>
+        <v>0.001</v>
       </c>
       <c r="O11" t="n">
+        <v>1.430867423317587</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.08237299505499225</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7808212704711006</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.715290089745982</v>
+      </c>
+      <c r="T11" t="n">
         <v>0.1</v>
       </c>
-      <c r="P11" t="n">
-        <v>9.990655724912868</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.09988068471640914</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.8030355915251625</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.3074734739557694</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.001</v>
-      </c>
       <c r="U11" t="n">
-        <v>0.1152272478838579</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04021537963601539</v>
+        <v>0.03198031824837325</v>
       </c>
       <c r="C12" t="n">
-        <v>1.081081081081081</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9909980103681123</v>
+        <v>0.2829548888878097</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000921866522988185</v>
+        <v>0.0003375515218398284</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1722443387838438</v>
+        <v>0.1239830157596331</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7879708711319091</v>
+        <v>0.6504394739866435</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2769814436798479</v>
+        <v>0.2569261808515421</v>
       </c>
       <c r="J12" t="n">
-        <v>10.67514225991285</v>
+        <v>13.22229631605516</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9926997664192057</v>
+        <v>0.9908471201913726</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4.999329708110354</v>
       </c>
       <c r="M12" t="n">
-        <v>3.35824135319235</v>
+        <v>3.079508491428449</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00559131541750259</v>
+        <v>0.001</v>
       </c>
       <c r="O12" t="n">
-        <v>1.354656469391519</v>
+        <v>0.1</v>
       </c>
       <c r="P12" t="n">
-        <v>6.478876324008588</v>
+        <v>1.226793753266278</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08574192936918137</v>
+        <v>0.06285177544144438</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1</v>
+        <v>0.2947821103135322</v>
       </c>
       <c r="S12" t="n">
-        <v>6.796524247592878</v>
+        <v>1.619869607809894</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02306737132015214</v>
+        <v>0.09742704359379181</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1027801757048768</v>
+        <v>1.603051352428005</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0384370605812371</v>
+        <v>0.0374430523017971</v>
       </c>
       <c r="C13" t="n">
-        <v>1.011011011011011</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9878187504282968</v>
+        <v>0.8488429670872636</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009713582273514092</v>
+        <v>0.006214104958799743</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1579364206044942</v>
+        <v>0.1548240606716408</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7922045061494878</v>
+        <v>0.7617439644556567</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2696452526036726</v>
+        <v>0.2689480971100989</v>
       </c>
       <c r="J13" t="n">
-        <v>11.49407882368421</v>
+        <v>11.57540779156068</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9809591727854197</v>
+        <v>0.9880828390533103</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.999999358601313</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9425998198654781</v>
+        <v>0.1762063566095886</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008032800532255534</v>
+        <v>0.06715593259318231</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1486364055559048</v>
+        <v>1.327580145989421</v>
       </c>
       <c r="P13" t="n">
-        <v>1.058221067504775</v>
+        <v>9.033882706012093</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07186769447541123</v>
+        <v>0.008397449110936255</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>0.1004238500418005</v>
       </c>
       <c r="S13" t="n">
-        <v>3.543981052706828</v>
+        <v>1.734262274173107</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1</v>
+        <v>0.7110268210964966</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07289167893848997</v>
+        <v>0.03366933083795955</v>
       </c>
       <c r="C14" t="n">
-        <v>2.042042042042042</v>
+        <v>0.960960960960961</v>
       </c>
       <c r="D14" t="n">
-        <v>5.060226796584569</v>
+        <v>0.000435521385711013</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003135504119037036</v>
+        <v>0.003446980884768921</v>
       </c>
       <c r="G14" t="n">
-        <v>0.115822296388217</v>
+        <v>0.1376194031959112</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6888759531229121</v>
+        <v>0.7164896795593357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2485788394809698</v>
+        <v>0.262424445857171</v>
       </c>
       <c r="J14" t="n">
-        <v>14.77868863782651</v>
+        <v>12.45048411512771</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9901635210353068</v>
+        <v>0.9866242153816638</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.651837358877285</v>
+        <v>0.7565003954866076</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001</v>
+        <v>0.05970297385526889</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1000838534401449</v>
+        <v>0.5500703616144439</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7967902040050115</v>
+        <v>4.717577002472558</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09999325478444387</v>
+        <v>0.001011551470283478</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0.1053904793890807</v>
       </c>
       <c r="S14" t="n">
-        <v>3.353207360946248</v>
+        <v>6.109472530555032</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08726570182387543</v>
+        <v>0.002357157501636184</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9452472028069528</v>
+        <v>0.3651139595847354</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03636696840294779</v>
+        <v>0.04283495764321585</v>
       </c>
       <c r="C15" t="n">
-        <v>1.021021021021021</v>
+        <v>1.141141141141141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1388481193653461</v>
+        <v>0.5175206656604054</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009905116379006242</v>
+        <v>0.02489730089426691</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1587550754312581</v>
+        <v>0.2050061350833325</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7760437761482087</v>
+        <v>0.9590077420095713</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2692108314250557</v>
+        <v>0.2791574739798918</v>
       </c>
       <c r="J15" t="n">
-        <v>11.5694230577981</v>
+        <v>10.63198354904634</v>
       </c>
       <c r="K15" t="n">
-        <v>0.989104302979577</v>
+        <v>0.9648452682250369</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1138234315651704</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06902976940282575</v>
+        <v>0.08310847029160963</v>
       </c>
       <c r="O15" t="n">
-        <v>1.163679111400143</v>
+        <v>1.999371051343566</v>
       </c>
       <c r="P15" t="n">
-        <v>9.989242688682245</v>
+        <v>5.305251332814121</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01815391840909196</v>
+        <v>0.01212073857900479</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1009816884244586</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>4.810000881658856</v>
+        <v>6.379958185818601</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07941973843809066</v>
+        <v>0.005903930902726585</v>
       </c>
       <c r="U15" t="n">
-        <v>1.056078919564786</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -1455,34 +1455,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03734403760220604</v>
+        <v>0.03960069845852195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.960960960960961</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D16" t="n">
-        <v>1.069592321444072</v>
+        <v>1.777186062598579</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01258613489874732</v>
+        <v>0.01273736927253958</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1492307233469591</v>
+        <v>0.1558712029030154</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7919903326269634</v>
+        <v>0.8083282410588919</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2646894901521671</v>
+        <v>0.2671750769640425</v>
       </c>
       <c r="J16" t="n">
-        <v>12.27300824972898</v>
+        <v>11.88378967030453</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9757079886688117</v>
+        <v>0.9775049966181459</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -1491,28 +1491,28 @@
         <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="O16" t="n">
-        <v>1.280568239941572</v>
+        <v>0.7466983826221479</v>
       </c>
       <c r="P16" t="n">
-        <v>1.109609583436365</v>
+        <v>0.2801562557011071</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04931772055292484</v>
+        <v>0.08088043239886418</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7277300010770367</v>
+        <v>1.678830170514541</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1</v>
+        <v>0.2109332271947971</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03940755902392143</v>
+        <v>0.09799286004002798</v>
       </c>
       <c r="U16" t="n">
-        <v>1.101785715833099</v>
+        <v>1.879852199256762</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03681487376856318</v>
+        <v>0.06977076750176736</v>
       </c>
       <c r="C17" t="n">
-        <v>1.041041041041041</v>
+        <v>2.052052052052052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.166948753887312</v>
+        <v>3.758309537942658</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.5805805805805806</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004665787026710115</v>
+        <v>0.0002159581650538878</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1593542099548189</v>
+        <v>0.1263538238134086</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7659763846435824</v>
+        <v>0.6753538589233897</v>
       </c>
       <c r="I17" t="n">
-        <v>0.27123987798262</v>
+        <v>0.2571505811030534</v>
       </c>
       <c r="J17" t="n">
-        <v>11.40559265980257</v>
+        <v>13.26222458323326</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9888637722183012</v>
+        <v>0.9929761318875637</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7949135491664993</v>
+        <v>9.99999839302259</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01216201750281754</v>
+        <v>0.0627566255021698</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1</v>
+        <v>0.1458233886910646</v>
       </c>
       <c r="P17" t="n">
-        <v>6.879134078413558</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09525345613268445</v>
+        <v>0.03848044051511818</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1</v>
+        <v>0.7441121106009944</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>0.1003102934076423</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001</v>
+        <v>0.04437080089120742</v>
       </c>
       <c r="U17" t="n">
-        <v>1.18395860750444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06284774632817085</v>
+        <v>0.04033331772823458</v>
       </c>
       <c r="C18" t="n">
-        <v>1.881881881881882</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D18" t="n">
-        <v>2.597568848906458</v>
+        <v>0.7378599288973959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6206206206206206</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001062185058011512</v>
+        <v>0.01933134766562859</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1364732937590079</v>
+        <v>0.1790674065558688</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6899528552050089</v>
+        <v>0.8853443477348174</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2627460081722294</v>
+        <v>0.2730640934348687</v>
       </c>
       <c r="J18" t="n">
-        <v>12.32840484404599</v>
+        <v>11.25013016741552</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9901158640494435</v>
+        <v>0.9686519090403848</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>4.51085977187909</v>
+        <v>7.121042530907435</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005265431552222747</v>
+        <v>0.06054104782316173</v>
       </c>
       <c r="O18" t="n">
-        <v>1.482948034794005</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>3.083124329280539</v>
+        <v>1.089614750085221</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04597051066828908</v>
+        <v>0.05877849163950004</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5013865543451735</v>
+        <v>1.809763195920508</v>
       </c>
       <c r="S18" t="n">
-        <v>4.841448672277017</v>
+        <v>7.711799108479691</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02779574043260608</v>
+        <v>0.01363274357979872</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1</v>
+        <v>1.991862593668537</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03352972517981527</v>
+        <v>0.03483428673966543</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9309309309309309</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2163929070005436</v>
+        <v>0.5338941947856373</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.007875535748273604</v>
+        <v>0.006336569038795703</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1339387899013388</v>
+        <v>0.140083683067168</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7236620551627156</v>
+        <v>0.7220287250873375</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2599241542388606</v>
+        <v>0.2630923246332551</v>
       </c>
       <c r="J19" t="n">
-        <v>12.84482936424797</v>
+        <v>12.38176836775578</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9809179623465796</v>
+        <v>0.985857601392452</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.180533082608242</v>
+        <v>0.6608704385306242</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04680973695227886</v>
+        <v>0.07178885068799293</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2025321735528678</v>
+        <v>0.804853712442929</v>
       </c>
       <c r="P19" t="n">
-        <v>4.210563061815792</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
         <v>0.001</v>
       </c>
       <c r="R19" t="n">
-        <v>1.325766290803875</v>
+        <v>0.1</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3105540785633779</v>
+        <v>10</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02808452904554904</v>
+        <v>0.07365580063922215</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5267333991877822</v>
+        <v>0.1610101395772822</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03477041919506466</v>
+        <v>0.03825676492047821</v>
       </c>
       <c r="C20" t="n">
-        <v>0.980980980980981</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0154318735236932</v>
+        <v>1.633824954630055</v>
       </c>
       <c r="E20" t="n">
         <v>0.6406406406406406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00431199290045616</v>
+        <v>0.009091390910304005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1467664103324414</v>
+        <v>0.1474918793300757</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7578786348054962</v>
+        <v>0.7728775490783142</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2649641046430782</v>
+        <v>0.2650238951311678</v>
       </c>
       <c r="J20" t="n">
-        <v>12.10474316136658</v>
+        <v>12.12850899531059</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9864047235822692</v>
+        <v>0.9798058235093043</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9713512811339469</v>
+        <v>1.703858688304308</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02455274326147043</v>
+        <v>0.07864637052821273</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1523196210925639</v>
+        <v>1.795775295556691</v>
       </c>
       <c r="P20" t="n">
-        <v>3.999085658815675</v>
+        <v>0.4442428744336077</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05107081175839224</v>
+        <v>0.08493379909943195</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8695606255803149</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1004093741170961</v>
+        <v>8.47533577690454</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06028306561905671</v>
+        <v>0.02759310175121546</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4023251013069166</v>
+        <v>0.5108779039780449</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.034247510995002</v>
+        <v>0.04079561383986552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.970970970970971</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1497113125635607</v>
+        <v>1.054166549923371</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003365317227286588</v>
+        <v>0.007162763275706447</v>
       </c>
       <c r="G21" t="n">
-        <v>0.137152046366964</v>
+        <v>0.1733397282961157</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7130558565987202</v>
+        <v>0.8213177437239587</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2619569219351997</v>
+        <v>0.2764940687695523</v>
       </c>
       <c r="J21" t="n">
-        <v>12.62454941392256</v>
+        <v>10.79675026713605</v>
       </c>
       <c r="K21" t="n">
-        <v>0.98773495913297</v>
+        <v>0.9839949731181121</v>
       </c>
       <c r="L21" t="n">
-        <v>4.953523045151388</v>
+        <v>4.994869589525006</v>
       </c>
       <c r="M21" t="n">
-        <v>1.316975827353269</v>
+        <v>6.458151325368621</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05600969859493711</v>
+        <v>0.08293059143310282</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3087764150438315</v>
+        <v>0.1</v>
       </c>
       <c r="P21" t="n">
-        <v>6.789649582403078</v>
+        <v>4.051749172507835</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08341334085803855</v>
+        <v>0.001</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1000276518191206</v>
+        <v>1.56670697385795</v>
       </c>
       <c r="S21" t="n">
-        <v>6.962238467340842</v>
+        <v>10</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08708678720786121</v>
+        <v>0.0332991089245758</v>
       </c>
       <c r="U21" t="n">
-        <v>1.279549024783215</v>
+        <v>1.914616931665044</v>
       </c>
     </row>
   </sheetData>
